--- a/HW1/FrequencyAnalysisTemplate_arbirary.xlsx
+++ b/HW1/FrequencyAnalysisTemplate_arbirary.xlsx
@@ -1,18 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saberda\Documents\文件\ComputerSecurity\HW1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB149348-EC72-4FF7-B61C-30A23D256EBB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="17900" windowHeight="15580" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1 (2)" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -194,12 +206,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -207,7 +219,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -215,7 +227,7 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -223,7 +235,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -231,7 +243,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -239,7 +251,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -247,6 +259,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -338,30 +357,38 @@
     </xf>
   </cellXfs>
   <cellStyles count="14">
-    <cellStyle name="Calculation" xfId="7" builtinId="22"/>
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Heading 1" xfId="5" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="6" builtinId="17"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="标题 1" xfId="5" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="6" builtinId="17"/>
+    <cellStyle name="计算" xfId="7" builtinId="22"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -481,76 +508,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>6.511627906976744</c:v>
+                  <c:v>6.5116279069767442</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.170542635658915</c:v>
+                  <c:v>2.1705426356589146</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.255813953488372</c:v>
+                  <c:v>3.2558139534883721</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.532299741602067</c:v>
+                  <c:v>2.5322997416020674</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.95348837209302</c:v>
+                  <c:v>13.953488372093023</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.118863049095607</c:v>
+                  <c:v>2.1188630490956073</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.136950904392765</c:v>
+                  <c:v>1.1369509043927648</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.496124031007752</c:v>
+                  <c:v>4.4961240310077519</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.529715762273902</c:v>
+                  <c:v>5.5297157622739022</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0516795865633075</c:v>
+                  <c:v>5.1679586563307491E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.757105943152455</c:v>
+                  <c:v>1.7571059431524549</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.617571059431524</c:v>
+                  <c:v>3.6175710594315245</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.015503875968992</c:v>
+                  <c:v>2.0155038759689923</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.459948320413435</c:v>
+                  <c:v>6.459948320413436</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.354005167958657</c:v>
+                  <c:v>9.3540051679586576</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>2.635658914728682</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.614987080103359</c:v>
+                  <c:v>6.6149870801033588</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.253229974160206</c:v>
+                  <c:v>6.2532299741602069</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.578811369509043</c:v>
+                  <c:v>8.5788113695090438</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.51421188630491</c:v>
+                  <c:v>3.5142118863049099</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.291989664082687</c:v>
+                  <c:v>1.2919896640826873</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.912144702842377</c:v>
+                  <c:v>1.9121447028423773</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.258397932816537</c:v>
+                  <c:v>0.2583979328165375</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>2.945736434108527</c:v>
@@ -561,6 +588,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6B72-44DF-A15C-C821B8F8AA0B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -615,16 +647,16 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -741,86 +773,91 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>6.5116279069767442</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>2.1705426356589146</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>3.2558139534883721</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>2.5322997416020674</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>13.953488372093023</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>2.1188630490956073</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>1.1369509043927648</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>4.4961240310077519</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>5.5297157622739022</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>5.1679586563307491E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>1.7571059431524549</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>3.6175710594315245</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0</c:v>
+                  <c:v>2.0155038759689923</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0</c:v>
+                  <c:v>6.459948320413436</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0</c:v>
+                  <c:v>9.3540051679586576</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0</c:v>
+                  <c:v>2.635658914728682</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0</c:v>
+                  <c:v>6.6149870801033588</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0</c:v>
+                  <c:v>6.2532299741602069</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0</c:v>
+                  <c:v>8.5788113695090438</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0</c:v>
+                  <c:v>3.5142118863049099</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.0</c:v>
+                  <c:v>1.2919896640826873</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.0</c:v>
+                  <c:v>1.9121447028423773</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.0</c:v>
+                  <c:v>0.2583979328165375</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.0</c:v>
+                  <c:v>2.945736434108527</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.0</c:v>
+                  <c:v>1.03359173126615</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-471B-497C-8751-3F1C96D337A3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -875,7 +912,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -898,7 +935,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -930,7 +973,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -996,7 +1045,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -1028,7 +1083,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1406,16 +1467,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="20" thickBot="1">
+    <row r="1" spans="1:5" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
@@ -1432,7 +1493,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18" thickTop="1" thickBot="1">
+    <row r="2" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1445,7 +1506,7 @@
         <v>6.5116279069767442</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" thickTop="1" thickBot="1">
+    <row r="3" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
@@ -1458,7 +1519,7 @@
         <v>2.1705426356589146</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18" thickTop="1" thickBot="1">
+    <row r="4" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -1471,7 +1532,7 @@
         <v>3.2558139534883721</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18" thickTop="1" thickBot="1">
+    <row r="5" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -1484,7 +1545,7 @@
         <v>2.5322997416020674</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18" thickTop="1" thickBot="1">
+    <row r="6" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -1497,7 +1558,7 @@
         <v>13.953488372093023</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18" thickTop="1" thickBot="1">
+    <row r="7" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
@@ -1510,7 +1571,7 @@
         <v>2.1188630490956073</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18" thickTop="1" thickBot="1">
+    <row r="8" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
@@ -1523,7 +1584,7 @@
         <v>1.1369509043927648</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18" thickTop="1" thickBot="1">
+    <row r="9" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -1536,7 +1597,7 @@
         <v>4.4961240310077519</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18" thickTop="1" thickBot="1">
+    <row r="10" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -1549,7 +1610,7 @@
         <v>5.5297157622739022</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18" thickTop="1" thickBot="1">
+    <row r="11" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>25</v>
       </c>
@@ -1562,7 +1623,7 @@
         <v>5.1679586563307491E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18" thickTop="1" thickBot="1">
+    <row r="12" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
@@ -1575,7 +1636,7 @@
         <v>1.7571059431524549</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18" thickTop="1" thickBot="1">
+    <row r="13" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
@@ -1588,7 +1649,7 @@
         <v>3.6175710594315245</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18" thickTop="1" thickBot="1">
+    <row r="14" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>17</v>
       </c>
@@ -1601,7 +1662,7 @@
         <v>2.0155038759689923</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18" thickTop="1" thickBot="1">
+    <row r="15" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>4</v>
       </c>
@@ -1614,7 +1675,7 @@
         <v>6.459948320413436</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18" thickTop="1" thickBot="1">
+    <row r="16" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>2</v>
       </c>
@@ -1627,7 +1688,7 @@
         <v>9.3540051679586576</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="18" thickTop="1" thickBot="1">
+    <row r="17" spans="1:3" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>13</v>
       </c>
@@ -1640,7 +1701,7 @@
         <v>2.635658914728682</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="18" thickTop="1" thickBot="1">
+    <row r="18" spans="1:3" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>23</v>
       </c>
@@ -1653,7 +1714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="18" thickTop="1" thickBot="1">
+    <row r="19" spans="1:3" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>5</v>
       </c>
@@ -1666,7 +1727,7 @@
         <v>6.6149870801033588</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="18" thickTop="1" thickBot="1">
+    <row r="20" spans="1:3" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>6</v>
       </c>
@@ -1679,7 +1740,7 @@
         <v>6.2532299741602069</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="18" thickTop="1" thickBot="1">
+    <row r="21" spans="1:3" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>1</v>
       </c>
@@ -1692,7 +1753,7 @@
         <v>8.5788113695090438</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="18" thickTop="1" thickBot="1">
+    <row r="22" spans="1:3" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>10</v>
       </c>
@@ -1705,7 +1766,7 @@
         <v>3.5142118863049099</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="18" thickTop="1" thickBot="1">
+    <row r="23" spans="1:3" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>18</v>
       </c>
@@ -1718,7 +1779,7 @@
         <v>1.2919896640826873</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="18" thickTop="1" thickBot="1">
+    <row r="24" spans="1:3" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>14</v>
       </c>
@@ -1731,7 +1792,7 @@
         <v>1.9121447028423773</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="18" thickTop="1" thickBot="1">
+    <row r="25" spans="1:3" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>22</v>
       </c>
@@ -1744,7 +1805,7 @@
         <v>0.2583979328165375</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="18" thickTop="1" thickBot="1">
+    <row r="26" spans="1:3" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>20</v>
       </c>
@@ -1757,7 +1818,7 @@
         <v>2.945736434108527</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="18" thickTop="1" thickBot="1">
+    <row r="27" spans="1:3" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>24</v>
       </c>
@@ -1770,8 +1831,8 @@
         <v>1.03359173126615</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="16" thickTop="1"/>
-    <row r="29" spans="1:3">
+    <row r="28" spans="1:3" ht="16.2" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>30</v>
       </c>
@@ -1781,6 +1842,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -1793,16 +1855,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="20" thickBot="1">
+    <row r="1" spans="1:5" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
@@ -1817,358 +1879,334 @@
       </c>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="18" thickTop="1" thickBot="1">
+    <row r="2" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B2" s="2">
-        <f t="shared" ref="B2:B27" si="0">LEN(E$1)-LEN(SUBSTITUTE(E$1,A2,""))</f>
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="e">
+        <v>126</v>
+      </c>
+      <c r="C2" s="2">
         <f>100*(B2/B$29)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="18" thickTop="1" thickBot="1">
+        <v>6.5116279069767442</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="e">
-        <f t="shared" ref="C3:C27" si="1">100*(B3/B$29)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="18" thickTop="1" thickBot="1">
+        <v>42</v>
+      </c>
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:C27" si="0">100*(B3/B$29)</f>
+        <v>2.1705426356589146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C4" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="18" thickTop="1" thickBot="1">
+        <v>63</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" si="0"/>
+        <v>3.2558139534883721</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B5" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C5" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="18" thickTop="1" thickBot="1">
+        <v>49</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" si="0"/>
+        <v>2.5322997416020674</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C6" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="18" thickTop="1" thickBot="1">
+        <v>270</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="0"/>
+        <v>13.953488372093023</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C7" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="18" thickTop="1" thickBot="1">
+        <v>41</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>2.1188630490956073</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C8" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="18" thickTop="1" thickBot="1">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1369509043927648</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C9" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="18" thickTop="1" thickBot="1">
+        <v>87</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>4.4961240310077519</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B10" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C10" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="18" thickTop="1" thickBot="1">
+        <v>107</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>5.5297157622739022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C11" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="18" thickTop="1" thickBot="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>5.1679586563307491E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B12" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C12" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="18" thickTop="1" thickBot="1">
+        <v>34</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>1.7571059431524549</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B13" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C13" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="18" thickTop="1" thickBot="1">
+        <v>70</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>3.6175710594315245</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B14" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C14" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="18" thickTop="1" thickBot="1">
+        <v>39</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>2.0155038759689923</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B15" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C15" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="18" thickTop="1" thickBot="1">
+        <v>125</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>6.459948320413436</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B16" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C16" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="18" thickTop="1" thickBot="1">
+        <v>181</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>9.3540051679586576</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B17" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C17" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="18" thickTop="1" thickBot="1">
+        <v>51</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>2.635658914728682</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B13:B18" si="1">LEN(E$1)-LEN(SUBSTITUTE(E$1,A18,""))</f>
         <v>0</v>
       </c>
-      <c r="C18" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="18" thickTop="1" thickBot="1">
+      <c r="C18" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B19" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C19" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="18" thickTop="1" thickBot="1">
+        <v>128</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" si="0"/>
+        <v>6.6149870801033588</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B20" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C20" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="18" thickTop="1" thickBot="1">
+        <v>121</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" si="0"/>
+        <v>6.2532299741602069</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B21" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C21" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="18" thickTop="1" thickBot="1">
+        <v>166</v>
+      </c>
+      <c r="C21" s="2">
+        <f t="shared" si="0"/>
+        <v>8.5788113695090438</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B22" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C22" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="18" thickTop="1" thickBot="1">
+        <v>68</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="0"/>
+        <v>3.5142118863049099</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B23" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C23" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="18" thickTop="1" thickBot="1">
+        <v>25</v>
+      </c>
+      <c r="C23" s="2">
+        <f t="shared" si="0"/>
+        <v>1.2919896640826873</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B24" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C24" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="18" thickTop="1" thickBot="1">
+        <v>37</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" si="0"/>
+        <v>1.9121447028423773</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C25" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="18" thickTop="1" thickBot="1">
+        <v>5</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" si="0"/>
+        <v>0.2583979328165375</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B26" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C26" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="18" thickTop="1" thickBot="1">
+        <v>57</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" si="0"/>
+        <v>2.945736434108527</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C27" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="16" thickTop="1"/>
-    <row r="29" spans="1:3">
+        <v>20</v>
+      </c>
+      <c r="C27" s="2">
+        <f t="shared" si="0"/>
+        <v>1.03359173126615</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="16.2" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="5">
         <f>SUM(B2:B27)</f>
-        <v>0</v>
+        <v>1935</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2178,13 +2216,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
